--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H2">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I2">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J2">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N2">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O2">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P2">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q2">
-        <v>7.00345792529128</v>
+        <v>7.130767702062444</v>
       </c>
       <c r="R2">
-        <v>7.00345792529128</v>
+        <v>64.176909318562</v>
       </c>
       <c r="S2">
-        <v>0.2564295313123509</v>
+        <v>0.2279128819626941</v>
       </c>
       <c r="T2">
-        <v>0.2564295313123509</v>
+        <v>0.227912881962694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H3">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I3">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J3">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N3">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O3">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P3">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q3">
-        <v>5.762606569963292</v>
+        <v>7.383585561853332</v>
       </c>
       <c r="R3">
-        <v>5.762606569963292</v>
+        <v>66.45227005667999</v>
       </c>
       <c r="S3">
-        <v>0.2109961275753222</v>
+        <v>0.2359934210356351</v>
       </c>
       <c r="T3">
-        <v>0.2109961275753222</v>
+        <v>0.235993421035635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H4">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I4">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J4">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N4">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O4">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P4">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q4">
-        <v>6.638333234656772</v>
+        <v>6.699410960314998</v>
       </c>
       <c r="R4">
-        <v>6.638333234656772</v>
+        <v>60.29469864283499</v>
       </c>
       <c r="S4">
-        <v>0.2430605992378314</v>
+        <v>0.2141259010549773</v>
       </c>
       <c r="T4">
-        <v>0.2430605992378314</v>
+        <v>0.2141259010549773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H5">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N5">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O5">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P5">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q5">
-        <v>5.462173560505508</v>
+        <v>6.936935279099997</v>
       </c>
       <c r="R5">
-        <v>5.462173560505508</v>
+        <v>62.43241751189998</v>
       </c>
       <c r="S5">
-        <v>0.1999958621881614</v>
+        <v>0.2217176295044762</v>
       </c>
       <c r="T5">
-        <v>0.1999958621881614</v>
+        <v>0.2217176295044761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H6">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I6">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J6">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N6">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O6">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P6">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q6">
-        <v>0.2006735987081505</v>
+        <v>0.2336074048986667</v>
       </c>
       <c r="R6">
-        <v>0.2006735987081505</v>
+        <v>2.102466644088</v>
       </c>
       <c r="S6">
-        <v>0.007347604199585961</v>
+        <v>0.007466536440793294</v>
       </c>
       <c r="T6">
-        <v>0.007347604199585961</v>
+        <v>0.007466536440793292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H7">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I7">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J7">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N7">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O7">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P7">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q7">
-        <v>0.165118861378134</v>
+        <v>0.24188984048</v>
       </c>
       <c r="R7">
-        <v>0.165118861378134</v>
+        <v>2.17700856432</v>
       </c>
       <c r="S7">
-        <v>0.006045778055025999</v>
+        <v>0.007731258815982442</v>
       </c>
       <c r="T7">
-        <v>0.006045778055025999</v>
+        <v>0.007731258815982441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.319477951252761</v>
+        <v>0.353022</v>
       </c>
       <c r="H8">
-        <v>0.319477951252761</v>
+        <v>1.059066</v>
       </c>
       <c r="I8">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J8">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N8">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O8">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P8">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q8">
-        <v>0.233432044434441</v>
+        <v>0.259185104506</v>
       </c>
       <c r="R8">
-        <v>0.233432044434441</v>
+        <v>2.332665940554</v>
       </c>
       <c r="S8">
-        <v>0.008547044957811747</v>
+        <v>0.008284048309788456</v>
       </c>
       <c r="T8">
-        <v>0.008547044957811747</v>
+        <v>0.008284048309788454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.319477951252761</v>
+        <v>0.353022</v>
       </c>
       <c r="H9">
-        <v>0.319477951252761</v>
+        <v>1.059066</v>
       </c>
       <c r="I9">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J9">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N9">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O9">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P9">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q9">
-        <v>0.19207326541366</v>
+        <v>0.26837438484</v>
       </c>
       <c r="R9">
-        <v>0.19207326541366</v>
+        <v>2.41536946356</v>
       </c>
       <c r="S9">
-        <v>0.007032705551038076</v>
+        <v>0.008577755165991229</v>
       </c>
       <c r="T9">
-        <v>0.007032705551038076</v>
+        <v>0.008577755165991227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24152897667064</v>
+        <v>1.427651</v>
       </c>
       <c r="H10">
-        <v>1.24152897667064</v>
+        <v>4.282953</v>
       </c>
       <c r="I10">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966213</v>
       </c>
       <c r="J10">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.730667150953891</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N10">
-        <v>0.730667150953891</v>
+        <v>2.202569</v>
       </c>
       <c r="O10">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="P10">
-        <v>0.5485996038869003</v>
+        <v>0.4912907638668469</v>
       </c>
       <c r="Q10">
-        <v>0.9071444402106364</v>
+        <v>1.048166611806333</v>
       </c>
       <c r="R10">
-        <v>0.9071444402106364</v>
+        <v>9.433499506257</v>
       </c>
       <c r="S10">
-        <v>0.03321482417932047</v>
+        <v>0.03350139609859386</v>
       </c>
       <c r="T10">
-        <v>0.03321482417932047</v>
+        <v>0.03350139609859384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24152897667064</v>
+        <v>1.427651</v>
       </c>
       <c r="H11">
-        <v>1.24152897667064</v>
+        <v>4.282953</v>
       </c>
       <c r="I11">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966213</v>
       </c>
       <c r="J11">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.601209769439449</v>
+        <v>0.7602199999999999</v>
       </c>
       <c r="N11">
-        <v>0.601209769439449</v>
+        <v>2.28066</v>
       </c>
       <c r="O11">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="P11">
-        <v>0.4514003961130997</v>
+        <v>0.5087092361331531</v>
       </c>
       <c r="Q11">
-        <v>0.7464193498165507</v>
+        <v>1.08532884322</v>
       </c>
       <c r="R11">
-        <v>0.7464193498165507</v>
+        <v>9.767959588979998</v>
       </c>
       <c r="S11">
-        <v>0.02732992274355201</v>
+        <v>0.03468917161106828</v>
       </c>
       <c r="T11">
-        <v>0.02732992274355201</v>
+        <v>0.03468917161106827</v>
       </c>
     </row>
   </sheetData>
